--- a/PCB打样相关文件/BOM清单.xlsx
+++ b/PCB打样相关文件/BOM清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>No.</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -103,12 +106,15 @@
     <t>10k</t>
   </si>
   <si>
-    <t>R8,R9,R10,R11,R12,R13,R14</t>
+    <t>R8,R9,R10,R12,R13,R14</t>
   </si>
   <si>
     <t>R0805</t>
   </si>
   <si>
+    <t>R12,R13，R14采用4.7k也可以</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -187,7 +193,10 @@
     <t>U14</t>
   </si>
   <si>
-    <t/>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R11</t>
   </si>
 </sst>
 </file>
@@ -195,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,12 +219,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -223,7 +240,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -239,37 +262,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +324,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -293,66 +348,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -369,12 +371,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,43 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,121 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +567,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -583,17 +574,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,17 +619,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,21 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -660,156 +647,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1193,20 +1198,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="33.8198198198198" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,248 +1227,266 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
